--- a/calculate_rate.xlsx
+++ b/calculate_rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelhwang/Cornell Drive/Research/Behance/website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelhwang/Desktop/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27085BE9-2195-494F-9551-35D1D84BCB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C366DF7E-6475-E941-9AC2-C32A67EF1BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="-3560" windowWidth="22160" windowHeight="16540" xr2:uid="{F700400B-2874-C64F-B911-B540B0D1B0A4}"/>
+    <workbookView xWindow="14460" yWindow="560" windowWidth="14280" windowHeight="16540" xr2:uid="{F700400B-2874-C64F-B911-B540B0D1B0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -121,6 +121,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B24A6-C9D5-5D42-A015-712789F6A67A}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1513,7 @@
         <v>10600</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D120" si="2">B67/C67</f>
+        <f t="shared" ref="D67:D198" si="2">B67/C67</f>
         <v>0.10377358490566038</v>
       </c>
       <c r="E67" s="3">
@@ -2243,7 +2244,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>1100</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>850</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>1000</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>889</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>762</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>959</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>1000</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>1900</v>
       </c>
@@ -2371,92 +2372,1259 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D149" s="2"/>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" s="1">
+        <v>378</v>
+      </c>
+      <c r="C121">
+        <v>3600</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="2"/>
+        <v>0.105</v>
+      </c>
+      <c r="E121" s="4">
+        <f>PERCENTRANK($D$121:$D$159, D121)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="1">
+        <v>613</v>
+      </c>
+      <c r="C122">
+        <v>4100</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14951219512195121</v>
+      </c>
+      <c r="E122" s="4">
+        <f t="shared" ref="E122:E198" si="5">PERCENTRANK($D$121:$D$159, D122)</f>
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="1">
+        <v>490</v>
+      </c>
+      <c r="C123">
+        <v>5200</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="2"/>
+        <v>9.4230769230769229E-2</v>
+      </c>
+      <c r="E123" s="4">
+        <f t="shared" si="5"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="1">
+        <v>369</v>
+      </c>
+      <c r="C124">
+        <v>3700</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9729729729729724E-2</v>
+      </c>
+      <c r="E124" s="4">
+        <f t="shared" si="5"/>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="1">
+        <v>391</v>
+      </c>
+      <c r="C125">
+        <v>3400</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="2"/>
+        <v>0.115</v>
+      </c>
+      <c r="E125" s="4">
+        <f t="shared" si="5"/>
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
+        <v>400</v>
+      </c>
+      <c r="C126">
+        <v>3900</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="E126" s="4">
+        <f t="shared" si="5"/>
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="1">
+        <v>657</v>
+      </c>
+      <c r="C127">
+        <v>5100</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1288235294117647</v>
+      </c>
+      <c r="E127" s="4">
+        <f t="shared" si="5"/>
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1">
+        <v>486</v>
+      </c>
+      <c r="C128">
+        <v>3800</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12789473684210526</v>
+      </c>
+      <c r="E128" s="4">
+        <f t="shared" si="5"/>
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C129">
+        <v>7900</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15189873417721519</v>
+      </c>
+      <c r="E129" s="4">
+        <f t="shared" si="5"/>
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="1">
+        <v>444</v>
+      </c>
+      <c r="C130">
+        <v>4500</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8666666666666666E-2</v>
+      </c>
+      <c r="E130" s="4">
+        <f t="shared" si="5"/>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="1">
+        <v>475</v>
+      </c>
+      <c r="C131">
+        <v>4600</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10326086956521739</v>
+      </c>
+      <c r="E131" s="4">
+        <f t="shared" si="5"/>
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="1">
+        <v>365</v>
+      </c>
+      <c r="C132">
+        <v>4100</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9024390243902435E-2</v>
+      </c>
+      <c r="E132" s="4">
+        <f t="shared" si="5"/>
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="1">
+        <v>312</v>
+      </c>
+      <c r="C133">
+        <v>2900</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10758620689655173</v>
+      </c>
+      <c r="E133" s="4">
+        <f t="shared" si="5"/>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="1">
+        <v>631</v>
+      </c>
+      <c r="C134">
+        <v>5500</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11472727272727273</v>
+      </c>
+      <c r="E134" s="4">
+        <f t="shared" si="5"/>
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="1">
+        <v>832</v>
+      </c>
+      <c r="C135">
+        <v>4600</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18086956521739131</v>
+      </c>
+      <c r="E135" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="1">
+        <v>363</v>
+      </c>
+      <c r="C136">
+        <v>5100</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1176470588235299E-2</v>
+      </c>
+      <c r="E136" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C137">
+        <v>8700</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="E137" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="1">
+        <v>996</v>
+      </c>
+      <c r="C138">
+        <v>8200</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12146341463414634</v>
+      </c>
+      <c r="E138" s="4">
+        <f t="shared" si="5"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="1">
+        <v>719</v>
+      </c>
+      <c r="C139">
+        <v>5300</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13566037735849057</v>
+      </c>
+      <c r="E139" s="4">
+        <f t="shared" si="5"/>
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="1">
+        <v>664</v>
+      </c>
+      <c r="C140">
+        <v>6800</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7647058823529406E-2</v>
+      </c>
+      <c r="E140" s="4">
+        <f t="shared" si="5"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
+        <v>732</v>
+      </c>
+      <c r="C141">
+        <v>6800</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10764705882352942</v>
+      </c>
+      <c r="E141" s="4">
+        <f t="shared" si="5"/>
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C142">
+        <v>7200</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="1">
+        <v>597</v>
+      </c>
+      <c r="C143">
+        <v>8200</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2804878048780483E-2</v>
+      </c>
+      <c r="E143" s="4">
+        <f t="shared" si="5"/>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="1">
+        <v>796</v>
+      </c>
+      <c r="C144">
+        <v>5700</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13964912280701755</v>
+      </c>
+      <c r="E144" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="1">
+        <v>591</v>
+      </c>
+      <c r="C145">
+        <v>6100</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6885245901639341E-2</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="5"/>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="1">
+        <v>734</v>
+      </c>
+      <c r="C146">
+        <v>6900</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1063768115942029</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="5"/>
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="1">
+        <v>465</v>
+      </c>
+      <c r="C147">
+        <v>5300</v>
+      </c>
+      <c r="D147" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7735849056603768E-2</v>
+      </c>
+      <c r="E147" s="4">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="1">
+        <v>605</v>
+      </c>
+      <c r="C148">
+        <v>5900</v>
+      </c>
+      <c r="D148" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10254237288135593</v>
+      </c>
+      <c r="E148" s="4">
+        <f t="shared" si="5"/>
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="1">
+        <v>312</v>
+      </c>
+      <c r="C149">
+        <v>3600</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" si="2"/>
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="E149" s="4">
+        <f t="shared" si="5"/>
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="1">
+        <v>920</v>
+      </c>
+      <c r="C150">
+        <v>9100</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1010989010989011</v>
+      </c>
+      <c r="E150" s="4">
+        <f t="shared" si="5"/>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C151">
+        <v>10400</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16346153846153846</v>
+      </c>
+      <c r="E151" s="4">
+        <f t="shared" si="5"/>
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="1">
+        <v>997</v>
+      </c>
+      <c r="C152">
+        <v>14100</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0709219858156022E-2</v>
+      </c>
+      <c r="E152" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="1">
+        <v>459</v>
+      </c>
+      <c r="C153">
+        <v>5400</v>
+      </c>
+      <c r="D153" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E153" s="4">
+        <f t="shared" si="5"/>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <v>459</v>
+      </c>
+      <c r="C154">
+        <v>5400</v>
+      </c>
+      <c r="D154" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E154" s="4">
+        <f t="shared" si="5"/>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <v>375</v>
+      </c>
+      <c r="C155">
+        <v>4900</v>
+      </c>
+      <c r="D155" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6530612244897961E-2</v>
+      </c>
+      <c r="E155" s="4">
+        <f t="shared" si="5"/>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <v>722</v>
+      </c>
+      <c r="C156">
+        <v>6300</v>
+      </c>
+      <c r="D156" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11460317460317461</v>
+      </c>
+      <c r="E156" s="4">
+        <f t="shared" si="5"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C157">
+        <v>14700</v>
+      </c>
+      <c r="D157" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="E157" s="4">
+        <f t="shared" si="5"/>
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <v>407</v>
+      </c>
+      <c r="C158">
+        <v>5800</v>
+      </c>
+      <c r="D158" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0172413793103447E-2</v>
+      </c>
+      <c r="E158" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C159">
+        <v>12400</v>
+      </c>
+      <c r="D159" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12096774193548387</v>
+      </c>
+      <c r="E159" s="4">
+        <f t="shared" si="5"/>
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
+        <v>620</v>
+      </c>
+      <c r="C160">
+        <v>5000</v>
+      </c>
+      <c r="D160" s="2">
+        <f t="shared" si="2"/>
+        <v>0.124</v>
+      </c>
+      <c r="E160" s="4">
+        <f>PERCENTRANK($D$160:$D$198, D160)</f>
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <v>414</v>
+      </c>
+      <c r="C161">
+        <v>5400</v>
+      </c>
+      <c r="D161" s="5">
+        <f t="shared" si="2"/>
+        <v>7.6666666666666661E-2</v>
+      </c>
+      <c r="E161" s="4">
+        <f t="shared" ref="E161:E198" si="6">PERCENTRANK($D$160:$D$198, D161)</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="1">
+        <v>583</v>
+      </c>
+      <c r="C162">
+        <v>4500</v>
+      </c>
+      <c r="D162" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12955555555555556</v>
+      </c>
+      <c r="E162" s="4">
+        <f t="shared" si="6"/>
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="1">
+        <v>618</v>
+      </c>
+      <c r="C163">
+        <v>5700</v>
+      </c>
+      <c r="D163" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10842105263157895</v>
+      </c>
+      <c r="E163" s="4">
+        <f t="shared" si="6"/>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="1">
+        <v>755</v>
+      </c>
+      <c r="C164">
+        <v>5500</v>
+      </c>
+      <c r="D164" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13727272727272727</v>
+      </c>
+      <c r="E164" s="4">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="1">
+        <v>290</v>
+      </c>
+      <c r="C165">
+        <v>4700</v>
+      </c>
+      <c r="D165" s="5">
+        <f t="shared" si="2"/>
+        <v>6.1702127659574467E-2</v>
+      </c>
+      <c r="E165" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="1">
+        <v>912</v>
+      </c>
+      <c r="C166">
+        <v>5800</v>
+      </c>
+      <c r="D166" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15724137931034482</v>
+      </c>
+      <c r="E166" s="4">
+        <f t="shared" si="6"/>
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="1">
+        <v>540</v>
+      </c>
+      <c r="C167">
+        <v>5500</v>
+      </c>
+      <c r="D167" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8181818181818176E-2</v>
+      </c>
+      <c r="E167" s="4">
+        <f t="shared" si="6"/>
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="1">
+        <v>878</v>
+      </c>
+      <c r="C168">
+        <v>5400</v>
+      </c>
+      <c r="D168" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16259259259259259</v>
+      </c>
+      <c r="E168" s="4">
+        <f t="shared" si="6"/>
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="1">
+        <v>612</v>
+      </c>
+      <c r="C169">
+        <v>4800</v>
+      </c>
+      <c r="D169" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="E169" s="4">
+        <f t="shared" si="6"/>
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="1">
+        <v>628</v>
+      </c>
+      <c r="C170">
+        <v>4900</v>
+      </c>
+      <c r="D170" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12816326530612246</v>
+      </c>
+      <c r="E170" s="4">
+        <f t="shared" si="6"/>
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="1">
+        <v>394</v>
+      </c>
+      <c r="C171">
+        <v>3600</v>
+      </c>
+      <c r="D171" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10944444444444444</v>
+      </c>
+      <c r="E171" s="4">
+        <f t="shared" si="6"/>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C172">
+        <v>10400</v>
+      </c>
+      <c r="D172" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E172" s="4">
+        <f t="shared" si="6"/>
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C173">
+        <v>10000</v>
+      </c>
+      <c r="D173" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="E173" s="4">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="1">
+        <v>795</v>
+      </c>
+      <c r="C174">
+        <v>8200</v>
+      </c>
+      <c r="D174" s="5">
+        <f t="shared" si="2"/>
+        <v>9.6951219512195125E-2</v>
+      </c>
+      <c r="E174" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="1">
+        <v>662</v>
+      </c>
+      <c r="C175">
+        <v>7400</v>
+      </c>
+      <c r="D175" s="5">
+        <f t="shared" si="2"/>
+        <v>8.9459459459459462E-2</v>
+      </c>
+      <c r="E175" s="4">
+        <f t="shared" si="6"/>
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="1">
+        <v>513</v>
+      </c>
+      <c r="C176">
+        <v>5200</v>
+      </c>
+      <c r="D176" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8653846153846148E-2</v>
+      </c>
+      <c r="E176" s="4">
+        <f t="shared" si="6"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C177">
+        <v>9100</v>
+      </c>
+      <c r="D177" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E177" s="4">
+        <f t="shared" si="6"/>
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="1">
+        <v>646</v>
+      </c>
+      <c r="C178">
+        <v>6500</v>
+      </c>
+      <c r="D178" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9384615384615391E-2</v>
+      </c>
+      <c r="E178" s="4">
+        <f t="shared" si="6"/>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C179">
+        <v>8900</v>
+      </c>
+      <c r="D179" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="E179" s="4">
+        <f t="shared" si="6"/>
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C180">
+        <v>9100</v>
+      </c>
+      <c r="D180" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10989010989010989</v>
+      </c>
+      <c r="E180" s="4">
+        <f t="shared" si="6"/>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C181">
+        <v>8100</v>
+      </c>
+      <c r="D181" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="E181" s="4">
+        <f t="shared" si="6"/>
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C182">
+        <v>13900</v>
+      </c>
+      <c r="D182" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1223021582733813</v>
+      </c>
+      <c r="E182" s="4">
+        <f t="shared" si="6"/>
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="1">
+        <v>392</v>
+      </c>
+      <c r="C183">
+        <v>4800</v>
+      </c>
+      <c r="D183" s="5">
+        <f t="shared" si="2"/>
+        <v>8.1666666666666665E-2</v>
+      </c>
+      <c r="E183" s="4">
+        <f t="shared" si="6"/>
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C184">
+        <v>8200</v>
+      </c>
+      <c r="D184" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="E184" s="4">
+        <f t="shared" si="6"/>
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C185">
+        <v>10800</v>
+      </c>
+      <c r="D185" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E185" s="4">
+        <f t="shared" si="6"/>
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C186">
+        <v>7300</v>
+      </c>
+      <c r="D186" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15068493150684931</v>
+      </c>
+      <c r="E186" s="4">
+        <f t="shared" si="6"/>
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="1">
+        <v>573</v>
+      </c>
+      <c r="C187">
+        <v>7300</v>
+      </c>
+      <c r="D187" s="5">
+        <f t="shared" si="2"/>
+        <v>7.8493150684931512E-2</v>
+      </c>
+      <c r="E187" s="4">
+        <f t="shared" si="6"/>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C188">
+        <v>8300</v>
+      </c>
+      <c r="D188" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16867469879518071</v>
+      </c>
+      <c r="E188" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="1">
+        <v>506</v>
+      </c>
+      <c r="C189">
+        <v>6800</v>
+      </c>
+      <c r="D189" s="5">
+        <f t="shared" si="2"/>
+        <v>7.4411764705882358E-2</v>
+      </c>
+      <c r="E189" s="4">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="1">
+        <v>568</v>
+      </c>
+      <c r="C190">
+        <v>7400</v>
+      </c>
+      <c r="D190" s="5">
+        <f t="shared" si="2"/>
+        <v>7.675675675675675E-2</v>
+      </c>
+      <c r="E190" s="4">
+        <f t="shared" si="6"/>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="1">
+        <v>952</v>
+      </c>
+      <c r="C191">
+        <v>7700</v>
+      </c>
+      <c r="D191" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12363636363636364</v>
+      </c>
+      <c r="E191" s="4">
+        <f t="shared" si="6"/>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C192">
+        <v>9800</v>
+      </c>
+      <c r="D192" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="E192" s="4">
+        <f t="shared" si="6"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C193">
+        <v>9000</v>
+      </c>
+      <c r="D193" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E193" s="4">
+        <f t="shared" si="6"/>
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="1">
+        <v>554</v>
+      </c>
+      <c r="C194">
+        <v>7200</v>
+      </c>
+      <c r="D194" s="5">
+        <f t="shared" si="2"/>
+        <v>7.694444444444444E-2</v>
+      </c>
+      <c r="E194" s="4">
+        <f t="shared" si="6"/>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C195">
+        <v>14100</v>
+      </c>
+      <c r="D195" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16312056737588654</v>
+      </c>
+      <c r="E195" s="4">
+        <f t="shared" si="6"/>
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C196">
+        <v>17400</v>
+      </c>
+      <c r="D196" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12643678160919541</v>
+      </c>
+      <c r="E196" s="4">
+        <f t="shared" si="6"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="1">
+        <v>987</v>
+      </c>
+      <c r="C197">
+        <v>8300</v>
+      </c>
+      <c r="D197" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11891566265060241</v>
+      </c>
+      <c r="E197" s="4">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C198">
+        <v>14200</v>
+      </c>
+      <c r="D198" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15492957746478872</v>
+      </c>
+      <c r="E198" s="4">
+        <f t="shared" si="6"/>
+        <v>0.84199999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
